--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/TbJcicW020.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/TbJcicW020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A307D9DF-7F70-45E5-821E-DBBC96EE7030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B172338A-BEB7-4D63-A1CD-A4F1DE1C755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -788,7 +788,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -859,9 +859,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="C5" s="18"/>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
